--- a/biology/Zoologie/Chien_(astrologie_chinoise)/Chien_(astrologie_chinoise).xlsx
+++ b/biology/Zoologie/Chien_(astrologie_chinoise)/Chien_(astrologie_chinoise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Chien est le onzième sur douze animaux dans l'ordre d'arrivée qui apparaît dans le zodiaque chinois, lié au calendrier chinois.
 Le Chien est un intellectuel un peu trop généreux dont les autres profitent
@@ -517,6 +529,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
